--- a/biology/Zoologie/Cryptotympana_facialis/Cryptotympana_facialis.xlsx
+++ b/biology/Zoologie/Cryptotympana_facialis/Cryptotympana_facialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptotympana facialis, kumazemi (熊蟬, クマゼミ?) en japonais, littéralement « cigale-ours », est une espèce de cigales appartenant à la famille des Cicadidae, à la sous-famille  des Cicadinae et au genre Cryptotympana (en).
 C'est l'une des plus grandes espèces de cigales vivant au Japon, d'où elle est endémique.
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les imagos de Cryptotympana facialis mesurent environ 60 à 70 mm de long[2]. Leur tête est plus large que celle de Graptopsaltria nigrofuscata (en) et Hyalessa maculaticollis (en). Il s'agit de la deuxième plus grande cigale japonaise après Cryptotympana yayeyamana (ja). Ses ailes sont transparentes, et leurs nervures sont vertes près de la base. Son dos est noir brillant, avec deux tâches horizontales blanches au milieu de l'abdomen. De plus, son dos est couvert de fins poils dorés durant plusieurs jours après la mue imaginale. L'abdomen est blanc, brun et noir. Celui du mâle contient des organes phonatoires orange : les cymbales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les imagos de Cryptotympana facialis mesurent environ 60 à 70 mm de long. Leur tête est plus large que celle de Graptopsaltria nigrofuscata (en) et Hyalessa maculaticollis (en). Il s'agit de la deuxième plus grande cigale japonaise après Cryptotympana yayeyamana (ja). Ses ailes sont transparentes, et leurs nervures sont vertes près de la base. Son dos est noir brillant, avec deux tâches horizontales blanches au milieu de l'abdomen. De plus, son dos est couvert de fins poils dorés durant plusieurs jours après la mue imaginale. L'abdomen est blanc, brun et noir. Celui du mâle contient des organes phonatoires orange : les cymbales.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptotympana facialis se trouve principalement au sud du Japon. Son aire de répartition s'étend au sud de la région du Kantō, dans la région du Tōkai, la région de Hokuriku, jusqu'à l'ouest du Japon (région du Kansai, région du Chūgoku, Shikoku, Kyūshū, ainsi que l'archipel Nansei)[3]. Bien que des observations ait été signalées à Taïwan et en Chine, la plupart des individus observés à Taïwan ont probablement été confondus avec une espèce locale étroitement apparentée : Cryptotympana takasagona. De la même façon, les observations en Chine continentale restent à confirmer, car une espèce avec un chant similaire vit dans les basses montagnes du sud de la Chine : Cryptotympana mandarina. La population est importante dans les plaines de l'ouest du Japon, notamment dans la région du Kansai et à Kyūshū. On observe souvent l'espèce dans les zones urbaines.
-Ces dernières années, le nombre d'individus a augmenté dans la région du Kantō. Selon le professeur Eiji Numata de l'université de Kyōto[4], l'espèce est en pleine expansion vers le nord du Kantō. La limite nord de sa répartition se situait dans la préfecture de Kanagawa il y a 50 ans, mais elle serait en train de se déplacer jusqu'à la métropole de Tōkyō et la préfecture d'Ibaraki. Cette expansion pourrait être liée au réchauffement climatique, mais aussi à la migration d'œufs et de larves favorisée par la plantation d'arbres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptotympana facialis se trouve principalement au sud du Japon. Son aire de répartition s'étend au sud de la région du Kantō, dans la région du Tōkai, la région de Hokuriku, jusqu'à l'ouest du Japon (région du Kansai, région du Chūgoku, Shikoku, Kyūshū, ainsi que l'archipel Nansei). Bien que des observations ait été signalées à Taïwan et en Chine, la plupart des individus observés à Taïwan ont probablement été confondus avec une espèce locale étroitement apparentée : Cryptotympana takasagona. De la même façon, les observations en Chine continentale restent à confirmer, car une espèce avec un chant similaire vit dans les basses montagnes du sud de la Chine : Cryptotympana mandarina. La population est importante dans les plaines de l'ouest du Japon, notamment dans la région du Kansai et à Kyūshū. On observe souvent l'espèce dans les zones urbaines.
+Ces dernières années, le nombre d'individus a augmenté dans la région du Kantō. Selon le professeur Eiji Numata de l'université de Kyōto, l'espèce est en pleine expansion vers le nord du Kantō. La limite nord de sa répartition se situait dans la préfecture de Kanagawa il y a 50 ans, mais elle serait en train de se déplacer jusqu'à la métropole de Tōkyō et la préfecture d'Ibaraki. Cette expansion pourrait être liée au réchauffement climatique, mais aussi à la migration d'œufs et de larves favorisée par la plantation d'arbres.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptotympana facialis vit dans les régions chaudes, principalement en plaine ou à faible altitude. On la trouve souvent dans les parcs urbains et sur les arbres en bordure de route.
 L'imago peut être observé de début juillet jusqu'à début septembre, mais surtout de fin juillet à début août. Leur durée de vie est d'environ deux semaines, mais une étude de l'Université municipale d'Osaka a rapporté que des femelles avaient atteint l'âge de 30 jours.
